--- a/TOR450 Data/5. Clean Data for Data Visualisation/TOR450_itra_including_DNF.xlsx
+++ b/TOR450 Data/5. Clean Data for Data Visualisation/TOR450_itra_including_DNF.xlsx
@@ -2804,7 +2804,7 @@
         <v>503</v>
       </c>
       <c r="F3">
-        <v>498735.0000000001</v>
+        <v>498735</v>
       </c>
       <c r="G3" t="s">
         <v>775</v>
@@ -2833,7 +2833,7 @@
         <v>504</v>
       </c>
       <c r="F4">
-        <v>514911.0000000001</v>
+        <v>514911</v>
       </c>
       <c r="G4" t="s">
         <v>775</v>
@@ -7434,7 +7434,7 @@
         <v>574</v>
       </c>
       <c r="F173">
-        <v>478756.0000000001</v>
+        <v>478756</v>
       </c>
       <c r="G173" t="s">
         <v>775</v>
@@ -7463,7 +7463,7 @@
         <v>575</v>
       </c>
       <c r="F174">
-        <v>478767.0000000001</v>
+        <v>478767</v>
       </c>
       <c r="G174" t="s">
         <v>775</v>
@@ -7492,7 +7492,7 @@
         <v>576</v>
       </c>
       <c r="F175">
-        <v>487320.0000000001</v>
+        <v>487320</v>
       </c>
       <c r="G175" t="s">
         <v>775</v>
@@ -7521,7 +7521,7 @@
         <v>576</v>
       </c>
       <c r="F176">
-        <v>487320.0000000001</v>
+        <v>487320</v>
       </c>
       <c r="G176" t="s">
         <v>775</v>
@@ -7550,7 +7550,7 @@
         <v>577</v>
       </c>
       <c r="F177">
-        <v>515645.0000000001</v>
+        <v>515645</v>
       </c>
       <c r="G177" t="s">
         <v>775</v>
@@ -12129,7 +12129,7 @@
         <v>654</v>
       </c>
       <c r="F344">
-        <v>483815.0000000001</v>
+        <v>483815</v>
       </c>
       <c r="G344" t="s">
         <v>775</v>
@@ -12158,7 +12158,7 @@
         <v>655</v>
       </c>
       <c r="F345">
-        <v>483816.0000000001</v>
+        <v>483816</v>
       </c>
       <c r="G345" t="s">
         <v>775</v>
@@ -12187,7 +12187,7 @@
         <v>656</v>
       </c>
       <c r="F346">
-        <v>491000.0000000001</v>
+        <v>491000</v>
       </c>
       <c r="G346" t="s">
         <v>775</v>
@@ -13753,7 +13753,7 @@
         <v>707</v>
       </c>
       <c r="F400">
-        <v>497880.0000000001</v>
+        <v>497880</v>
       </c>
       <c r="G400" t="s">
         <v>775</v>
@@ -13782,7 +13782,7 @@
         <v>707</v>
       </c>
       <c r="F401">
-        <v>497880.0000000001</v>
+        <v>497880</v>
       </c>
       <c r="G401" t="s">
         <v>775</v>
@@ -15302,7 +15302,7 @@
         <v>735</v>
       </c>
       <c r="F456">
-        <v>483001.0000000001</v>
+        <v>483001</v>
       </c>
       <c r="G456" t="s">
         <v>775</v>
@@ -15331,7 +15331,7 @@
         <v>736</v>
       </c>
       <c r="F457">
-        <v>503219.0000000001</v>
+        <v>503219</v>
       </c>
       <c r="G457" t="s">
         <v>775</v>
@@ -15360,7 +15360,7 @@
         <v>737</v>
       </c>
       <c r="F458">
-        <v>505372.0000000001</v>
+        <v>505372</v>
       </c>
       <c r="G458" t="s">
         <v>775</v>
